--- a/HbSizeS_BOM.xlsx
+++ b/HbSizeS_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CloudStrage\OneDrive\CADMech\HbSizeS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="6_{3985EB29-B6D3-44DD-B31B-ACED938BA3D7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{52060D1D-47B6-4425-9F15-E8C9BC4627E4}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{AFC86193-73F3-4B8B-ADA8-0912E183CF91}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{42190EB2-AC3C-42A8-B807-597AF7CD26DA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="8265" xr2:uid="{5F43534F-27C6-48E6-B5CC-D9D740F7E22B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13788" windowHeight="8268" xr2:uid="{5F43534F-27C6-48E6-B5CC-D9D740F7E22B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="189">
   <si>
     <t>パーツ名</t>
     <rPh sb="3" eb="4">
@@ -114,9 +114,6 @@
   <si>
     <t>MOLEX 53398-0371</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://jp.rs-online.com/web/p/pcb-headers/5427208/</t>
   </si>
   <si>
     <t>HbHandBoard_SizeS_(Right or Left)</t>
@@ -412,10 +409,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Parts</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
@@ -489,9 +482,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://jp.rs-online.com/web/p/tactile-switches/4645225/</t>
-  </si>
-  <si>
     <t>マイコンボード</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -507,18 +497,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://jp.rs-online.com/web/p/non-isolated-dc-dc-converters/1670629/</t>
-  </si>
-  <si>
     <t>MonotaRO</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.monotaro.com/g/01213882/</t>
-  </si>
-  <si>
-    <t>PCB GOGO</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>チップ抵抗 (M3216) 100kΩ</t>
@@ -531,56 +514,310 @@
     <t>Parts_Servo_ASV-15MG</t>
   </si>
   <si>
+    <t>Parts_Screw_M2_L6</t>
+  </si>
+  <si>
+    <t>Parts_Servo_TowerPro-MicroServo-SG90</t>
+  </si>
+  <si>
+    <t>Parts_Washer_M2_Ph4.3_T0.3</t>
+  </si>
+  <si>
+    <t>Parts_spacer_M2_l3.5</t>
+  </si>
+  <si>
+    <t>Circuit_PinHeader_PSM-410233-00</t>
+  </si>
+  <si>
+    <t>Circuit_handmainboard</t>
+  </si>
+  <si>
+    <t>Circuit_TactSwitch_SKRPACE010</t>
+  </si>
+  <si>
+    <t>Circuit_DCDCconverter_OKL-T3-W12N-C</t>
+  </si>
+  <si>
+    <t>Circuit_Connector_533980371</t>
+  </si>
+  <si>
+    <t>Circuit_SlideSwitch_IS-1250</t>
+  </si>
+  <si>
+    <t>Circuit_Controller_Pololu-A-Star-32U4-Micro</t>
+  </si>
+  <si>
+    <t>Circuit_DCjack_HEC3110-01-010</t>
+  </si>
+  <si>
+    <t>Circuit_PhoneJack_HLA-2503D1l</t>
+  </si>
+  <si>
+    <t>Parts_TorsionSpring_TOS 0.3-3-270ﾟ-3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>Parts_CoilSpring_CP 0.5-4.5-6.5</t>
-  </si>
-  <si>
-    <t>圧縮ばね</t>
-    <rPh sb="0" eb="2">
-      <t>アッシュク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://jp.rs-online.com/web/p/non-isolated-dc-dc-converters/1670629/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://jp.rs-online.com/web/p/tactile-switches/4645225/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://jp.rs-online.com/web/p/pcb-headers/5427208/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Parts ( For Hand )</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Wrist</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Socket</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユニット名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Parts_Screw_M2_L6</t>
-  </si>
-  <si>
-    <t>Parts_Servo_TowerPro-MicroServo-SG90</t>
-  </si>
-  <si>
-    <t>Parts_TorsionSpring_TOS 0.3-3-270ﾟ-3</t>
-  </si>
-  <si>
-    <t>Parts_Washer_M2_Ph4.3_T0.3</t>
-  </si>
-  <si>
-    <t>Parts_spacer_M2_l3.5</t>
-  </si>
-  <si>
-    <t>Circuit_PinHeader_PSM-410233-00</t>
-  </si>
-  <si>
-    <t>Circuit_handmainboard</t>
-  </si>
-  <si>
-    <t>Circuit_TactSwitch_SKRPACE010</t>
-  </si>
-  <si>
-    <t>Circuit_DCDCconverter_OKL-T3-W12N-C</t>
-  </si>
-  <si>
-    <t>Circuit_Connector_533980371</t>
-  </si>
-  <si>
-    <t>Circuit_SlideSwitch_IS-1250</t>
-  </si>
-  <si>
-    <t>Circuit_Controller_Pololu-A-Star-32U4-Micro</t>
-  </si>
-  <si>
-    <t>Circuit_DCjack_HEC3110-01-010</t>
-  </si>
-  <si>
-    <t>Circuit_PhoneJack_HLA-2503D1l</t>
+    <t>Hand</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Socket and Wrist</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SR-W-01</t>
+  </si>
+  <si>
+    <t>SR-W-02</t>
+  </si>
+  <si>
+    <t>SR-W-03</t>
+  </si>
+  <si>
+    <t>SR-W-04</t>
+  </si>
+  <si>
+    <t>SR-W-05</t>
+  </si>
+  <si>
+    <t>SR-W-06</t>
+  </si>
+  <si>
+    <t>SR-W-07</t>
+  </si>
+  <si>
+    <t>SR-W-08</t>
+  </si>
+  <si>
+    <t>Parts_Ball_SBM-SUJ-6.5</t>
+  </si>
+  <si>
+    <t>S-SO-1</t>
+  </si>
+  <si>
+    <t>S-SO-2</t>
+  </si>
+  <si>
+    <t>S-SO-3</t>
+  </si>
+  <si>
+    <t>S-SO-4</t>
+  </si>
+  <si>
+    <t>S-Socket-Template</t>
+  </si>
+  <si>
+    <t>3Dプリンタ部品, ソケット部品とソケットユニットの接合部品</t>
+    <rPh sb="6" eb="8">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セツゴウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Parts_Nuts_M4</t>
+  </si>
+  <si>
+    <t>Parts_PCB_BatteryProbePCB</t>
+  </si>
+  <si>
+    <t>Parts_Screw_M2_L4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Parts_Battery_NB-2LH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Parts_BatteryProbe_101050-003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Hand Board</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://jp.misumi-ec.com/vona2/detail/221000622892/?HissuCode=SBM-SUJ-6.5</t>
+  </si>
+  <si>
+    <t>MISUMI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ツバキ・ナカシマ 鋼球(精密ボール) SUJ2 ミリサイズ (SBM-SUJ-6.5)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Canon バッテリーパック NB-2LH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Amazon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/%E3%82%AD%E3%83%A4%E3%83%8E%E3%83%B3-NB-2LH-Canon-%E3%83%90%E3%83%83%E3%83%86%E3%83%AA%E3%83%BC%E3%83%91%E3%83%83%E3%82%AF/dp/B0001L1X5E</t>
+  </si>
+  <si>
+    <t>Smiths Interconnect / IDI 接触プローブ 101050-003</t>
+    <rPh sb="26" eb="28">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mouser</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.mouser.jp/ProductDetail/Smiths-Interconnect-IDI/101050-003?qs=6UiDpyXospgzg991JTokdA%3D%3D</t>
+  </si>
+  <si>
+    <t>Parts_Bolt_M4_L25</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Parts_Bolt_M3_L10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Parts_DressBolt_M3_L10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wilco ステンレス 六角穴付きボルト（キャップボルト）M3 L10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wilco ステンレス 六角穴付きボルト（キャップボルト）M4 L25</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wilco</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://wilco.jp/products/U/UC.html#page5</t>
+  </si>
+  <si>
+    <t>wilco ステンレス ローレットねじ 段付 φ8×H6 M3 L10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://wilco.jp/products/U/NU-ID.html</t>
+  </si>
+  <si>
+    <t>Parts_CoilSpring_CP_0.5-4.5-6.5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sotec 圧縮コイルばね CP 0.5-4.5-6.5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sotec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://sotec-bane.jp/tryspring/compression/c-swp/CP-0-5-4-5-6-5.html?iframe=true&amp;width=860&amp;height=96%</t>
+  </si>
+  <si>
+    <t>https://wilco.jp/products/U/UNT.html</t>
+  </si>
+  <si>
+    <t>ステンレス 六角ナット・1種 M4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッテリープローブマウント用PCB</t>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鉄 ＋なべBタイト</t>
+  </si>
+  <si>
+    <t>鉄 ＋なべBタイト M2 L4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鉄 ＋なべBタイト M2 L6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://wilco.jp/products/F/FBP-EB.html</t>
+  </si>
+  <si>
+    <t>PCB GOGO などで製作を発注</t>
+    <rPh sb="12" eb="14">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハッチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.pcbgogo.jp/</t>
+  </si>
+  <si>
+    <t>Parts ( For Wrist and Sockets )</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Joint For Wrist</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HbWristMountForChild_forBodyPowered</t>
+  </si>
+  <si>
+    <t>HbWristMountForChild_forHACKberry</t>
   </si>
 </sst>
 </file>
@@ -638,7 +875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -650,6 +887,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -676,15 +919,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -726,15 +969,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -776,15 +1019,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -826,15 +1069,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -876,15 +1119,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -926,15 +1169,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -976,15 +1219,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1026,15 +1269,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1076,15 +1319,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1126,15 +1369,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1176,15 +1419,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1226,15 +1469,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1276,15 +1519,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1326,15 +1569,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1376,15 +1619,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1426,15 +1669,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1476,15 +1719,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1526,15 +1769,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1576,15 +1819,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1626,15 +1869,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1676,15 +1919,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1726,15 +1969,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1776,15 +2019,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1826,15 +2069,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1876,15 +2119,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1926,15 +2169,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1976,13 +2219,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2026,13 +2269,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2076,13 +2319,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2126,13 +2369,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2176,13 +2419,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2226,13 +2469,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2276,13 +2519,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2326,13 +2569,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2376,13 +2619,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2426,13 +2669,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2476,13 +2719,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2526,13 +2769,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2576,13 +2819,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2626,13 +2869,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2676,13 +2919,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2726,13 +2969,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2776,13 +3019,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2826,13 +3069,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2876,13 +3119,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2926,13 +3169,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -2976,13 +3219,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -3026,13 +3269,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -3076,13 +3319,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -3126,13 +3369,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -3176,13 +3419,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -3226,13 +3469,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -3276,13 +3519,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -3326,13 +3569,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -3376,13 +3619,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -3426,13 +3669,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -3476,13 +3719,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -3526,13 +3769,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>1727200</xdr:rowOff>
@@ -3566,6 +3809,1606 @@
         <a:xfrm>
           <a:off x="7315200" y="27120850"/>
           <a:ext cx="0" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="図 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7149AC7-BB54-453A-94A2-C606EC6EAC22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="6964157"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="図 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A28E50-A5BB-49CC-82CE-1966AEDB7D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="7188275"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="図 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE87525-D70E-47E5-9457-36CA18B9880A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="6964157"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="図 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EAAC5C8-0DF4-4010-8E57-17F00FBEB16B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="7188275"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="図 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41A7994-8EAA-41F7-978E-4F195F653523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="6964157"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="図 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39BC7669-69D4-4D91-ACEC-FF018E618D80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="7188275"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="図 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F771F862-D97C-4854-BB74-E22FE5440837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="6964157"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="図 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0358F734-FC84-4948-8886-6169174D6580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="7188275"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="図 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCBE6C32-CBA7-4CFB-B4C7-3FF7EF3678A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="6964157"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="図 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E79A567F-46D0-447B-89BF-F6CB0F656612}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="7188275"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="図 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7E07A0-ECF6-47AA-B917-452B831558A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="6964157"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="図 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63096274-9CFD-4895-9FB6-E9C76033A3FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="7188275"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="図 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6092A6BB-D860-4F15-BCDC-CE0F3C5268A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="6964157"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="図 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEDF95A7-7796-4C11-BAC7-39C56CC5379F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="7188275"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="図 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA77DF62-A165-4291-94E7-51ACD19AD723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="6964157"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="図 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51924C77-44A0-4A44-B402-36D2A29B8AEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="7188275"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="図 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26990D0E-9FC9-483B-B040-4E88FA00EF7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="6964157"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="図 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE03C01-74B5-43F6-81CA-8ACB473DFECA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="7188275"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="図 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{819C6F5E-C3F7-40AD-BAB0-192E4AC7F4A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="6964157"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="図 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03CF923A-304D-4967-9B69-FED38D9B8AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="7188275"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="図 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBB3F18-D05A-4950-ADD5-E4BE4A049C90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="6964157"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="図 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC027C83-D449-4393-A52E-88643849DFB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="7188275"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="図 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78CD3C5A-5511-46D1-9941-CE079A132BE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="6964157"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="図 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{106C9BC1-8303-4385-8867-48793C34919A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="7188275"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="図 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DA31CB-D3DA-4F62-A734-5315869C992E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="6964157"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="図 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E07A1A-8D6A-4F04-AF3C-C16EC3F39839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="7188275"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="図 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A593F3F6-CEE7-4088-A490-7D482E237568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13234147" y="7188275"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="図 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48E0AB6-FE01-4532-ACF3-2E6E0DF4704A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13144500" y="6964157"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="図 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C498218D-FE5C-444F-B678-59FFB5E16EFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13144500" y="7188275"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="図 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83D3654-0C56-4571-A4C5-663DEB1ACBED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13144500" y="6964157"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="図 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E13218A6-AB72-46AA-A033-E678B803F106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13144500" y="7188275"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1727200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="図 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4782CD7B-534E-4FFF-8152-EF0D2962FBA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13144500" y="7188275"/>
+          <a:ext cx="0" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3874,1139 +5717,1754 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06119B1F-EFDE-4326-87CB-EDDC642A179F}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34:G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" customWidth="1"/>
-    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="106.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="37.69921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" customWidth="1"/>
+    <col min="5" max="5" width="57.796875" customWidth="1"/>
+    <col min="6" max="6" width="27.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="G39" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2">
+      <c r="F42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B48" s="4"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E53" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E54" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E55" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E58" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E60" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E61" t="s">
+        <v>147</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>156</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16">
+      <c r="E63" t="s">
+        <v>157</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>166</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17">
+      <c r="E66" t="s">
+        <v>170</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18">
+      <c r="E67" t="s">
+        <v>167</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19">
+      <c r="E69" t="s">
+        <v>177</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20">
+      <c r="E70" t="s">
+        <v>178</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>179</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>180</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
+        <v>181</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B74" s="4"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>105</v>
+      </c>
+      <c r="G75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21">
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G76" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>100</v>
+      </c>
+      <c r="F77" t="s">
+        <v>101</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22">
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s">
+        <v>101</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="4"/>
-      <c r="B26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28">
+      <c r="E80" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="4"/>
-      <c r="B29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29">
+      <c r="E81" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="4"/>
-      <c r="B30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30">
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83">
         <v>1</v>
       </c>
-      <c r="D30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="4"/>
-      <c r="B31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31">
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84">
         <v>1</v>
       </c>
-      <c r="D31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32">
+      <c r="E84" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>28</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="4"/>
-      <c r="B33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33">
+      <c r="E86" t="s">
+        <v>107</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87">
         <v>1</v>
       </c>
-      <c r="D33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35">
-        <v>32</v>
-      </c>
-      <c r="D35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="4"/>
-      <c r="B36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36">
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88">
         <v>1</v>
       </c>
-      <c r="D36" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="4"/>
-      <c r="B37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37">
+      <c r="E88" t="s">
+        <v>102</v>
+      </c>
+      <c r="F88" t="s">
+        <v>103</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89">
         <v>1</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="4"/>
-      <c r="B38" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38">
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="4"/>
-      <c r="B40" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="4"/>
-      <c r="B41" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41">
-        <v>9</v>
-      </c>
-      <c r="D41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="4"/>
-      <c r="B42" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="4"/>
-      <c r="B43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="E90" t="s">
+        <v>40</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="4"/>
-      <c r="B44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="4"/>
-      <c r="B45" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="4"/>
-      <c r="B46" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="4"/>
-      <c r="B48" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="4"/>
-      <c r="B49" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49">
-        <v>4</v>
-      </c>
-      <c r="D49" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="4"/>
-      <c r="B50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="4"/>
-      <c r="B51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" s="4"/>
-      <c r="B55" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="4"/>
-      <c r="B56" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-      <c r="B58" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>112</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
-      <c r="B59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="4"/>
-      <c r="B60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" t="s">
-        <v>106</v>
-      </c>
-      <c r="F60" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="4"/>
-      <c r="B61" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="4"/>
-      <c r="B62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="B47:F62">
-    <sortCondition ref="E47:E62"/>
+  <sortState ref="C62:D73">
+    <sortCondition ref="C62"/>
   </sortState>
-  <mergeCells count="6">
-    <mergeCell ref="A35:A46"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A47:A62"/>
+  <mergeCells count="13">
+    <mergeCell ref="A75:A90"/>
+    <mergeCell ref="A2:A47"/>
+    <mergeCell ref="B49:B56"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B62:B73"/>
+    <mergeCell ref="A49:A73"/>
+    <mergeCell ref="B75:B90"/>
+    <mergeCell ref="B36:B47"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="F35" r:id="rId1" xr:uid="{5BF04815-A2A0-41B8-9E05-84F9C9846679}"/>
-    <hyperlink ref="F61" r:id="rId2" xr:uid="{0F6400BF-D369-43F7-848F-36720DC34675}"/>
-    <hyperlink ref="F47" r:id="rId3" display="https://www.monotaro.com/p/2635/1833/" xr:uid="{B536279C-7EB9-4BC0-8D45-49FB8CE2A8E3}"/>
-    <hyperlink ref="F59" r:id="rId4" xr:uid="{E6A29000-199C-4FC1-B7FB-C3CBDA79DB77}"/>
-    <hyperlink ref="F44" r:id="rId5" xr:uid="{54B074E0-6B1E-4CD9-8083-E472232EFEDF}"/>
-    <hyperlink ref="F46" r:id="rId6" xr:uid="{C104E96B-E616-4F4E-937F-621A384B1943}"/>
-    <hyperlink ref="F38" r:id="rId7" xr:uid="{E18E0E3D-FABB-4BB3-867A-53F7D3C93E1D}"/>
-    <hyperlink ref="F40" r:id="rId8" xr:uid="{567ACA37-5560-4111-A269-83F878FCB86B}"/>
-    <hyperlink ref="F45" r:id="rId9" xr:uid="{5D1B3C71-68FF-4A80-AB53-506CFC9218B2}"/>
-    <hyperlink ref="F41" r:id="rId10" xr:uid="{4313FACA-932E-44C1-BA0F-F11C18FF2307}"/>
-    <hyperlink ref="F42" r:id="rId11" xr:uid="{86F6D153-A6C4-463B-ACAA-C222387568BA}"/>
-    <hyperlink ref="F43" r:id="rId12" xr:uid="{F2237FE6-0470-4B0E-990B-C42B4456CCFF}"/>
-    <hyperlink ref="F62" r:id="rId13" xr:uid="{84806505-EC4F-4512-901B-12B72AF726A0}"/>
+    <hyperlink ref="G36" r:id="rId1" xr:uid="{5BF04815-A2A0-41B8-9E05-84F9C9846679}"/>
+    <hyperlink ref="G89" r:id="rId2" xr:uid="{0F6400BF-D369-43F7-848F-36720DC34675}"/>
+    <hyperlink ref="G75" r:id="rId3" display="https://www.monotaro.com/p/2635/1833/" xr:uid="{B536279C-7EB9-4BC0-8D45-49FB8CE2A8E3}"/>
+    <hyperlink ref="G87" r:id="rId4" xr:uid="{E6A29000-199C-4FC1-B7FB-C3CBDA79DB77}"/>
+    <hyperlink ref="G45" r:id="rId5" xr:uid="{54B074E0-6B1E-4CD9-8083-E472232EFEDF}"/>
+    <hyperlink ref="G47" r:id="rId6" xr:uid="{C104E96B-E616-4F4E-937F-621A384B1943}"/>
+    <hyperlink ref="G39" r:id="rId7" xr:uid="{E18E0E3D-FABB-4BB3-867A-53F7D3C93E1D}"/>
+    <hyperlink ref="G41" r:id="rId8" xr:uid="{567ACA37-5560-4111-A269-83F878FCB86B}"/>
+    <hyperlink ref="G46" r:id="rId9" xr:uid="{5D1B3C71-68FF-4A80-AB53-506CFC9218B2}"/>
+    <hyperlink ref="G42" r:id="rId10" xr:uid="{4313FACA-932E-44C1-BA0F-F11C18FF2307}"/>
+    <hyperlink ref="G43" r:id="rId11" xr:uid="{86F6D153-A6C4-463B-ACAA-C222387568BA}"/>
+    <hyperlink ref="G44" r:id="rId12" xr:uid="{F2237FE6-0470-4B0E-990B-C42B4456CCFF}"/>
+    <hyperlink ref="G90" r:id="rId13" xr:uid="{84806505-EC4F-4512-901B-12B72AF726A0}"/>
+    <hyperlink ref="G78" r:id="rId14" xr:uid="{E155260A-6AB4-4D7D-BDA6-7031206CA813}"/>
+    <hyperlink ref="G77" r:id="rId15" xr:uid="{BF2E4674-9E69-4C06-AE3C-802B31D1E06C}"/>
+    <hyperlink ref="G79" r:id="rId16" xr:uid="{43A64A53-AA70-422E-8FDC-2DB411CE9AB0}"/>
+    <hyperlink ref="G71" r:id="rId17" xr:uid="{98A86D41-49D1-4650-BACA-6D4ABFB2AC42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId14"/>
-  <drawing r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId18"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>